--- a/wage.xlsx
+++ b/wage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -44,22 +44,10 @@
     <t>餐补</t>
   </si>
   <si>
-    <t>餐补X</t>
-  </si>
-  <si>
-    <t>餐补A</t>
-  </si>
-  <si>
     <t>全勤奖</t>
   </si>
   <si>
     <t>总工资</t>
-  </si>
-  <si>
-    <t>总工资X</t>
-  </si>
-  <si>
-    <t>总工资A</t>
   </si>
   <si>
     <t>2024-12</t>
@@ -131,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,25 +162,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>3800.0</v>
@@ -219,30 +195,18 @@
         <v>300.0</v>
       </c>
       <c r="K2" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4227.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4227.0</v>
-      </c>
-      <c r="P2" t="n">
         <v>4227.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>3900.0</v>
@@ -266,33 +230,21 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="K3" t="n">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4200.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4189.0</v>
-      </c>
-      <c r="P3" t="n">
         <v>4199.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3800.0</v>
@@ -316,33 +268,21 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>303.0</v>
+        <v>300.0</v>
       </c>
       <c r="K4" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4262.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4259.0</v>
-      </c>
-      <c r="P4" t="n">
         <v>4259.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>3700.0</v>
@@ -366,33 +306,21 @@
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>287.0</v>
+        <v>290.0</v>
       </c>
       <c r="K5" t="n">
-        <v>290.0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3949.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3952.0</v>
-      </c>
-      <c r="P5" t="n">
         <v>3952.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3500.0</v>
@@ -419,30 +347,18 @@
         <v>300.0</v>
       </c>
       <c r="K6" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3917.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3917.0</v>
-      </c>
-      <c r="P6" t="n">
         <v>3917.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>3500.0</v>
@@ -466,33 +382,21 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>284.0</v>
+        <v>280.0</v>
       </c>
       <c r="K7" t="n">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3712.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3708.0</v>
-      </c>
-      <c r="P7" t="n">
         <v>3708.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>3800.0</v>
@@ -519,30 +423,18 @@
         <v>290.0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4085.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4085.0</v>
-      </c>
-      <c r="P8" t="n">
         <v>4085.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>3500.0</v>
@@ -566,24 +458,12 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>284.0</v>
+        <v>280.0</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3718.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3734.0</v>
-      </c>
-      <c r="P9" t="n">
         <v>3714.0</v>
       </c>
     </row>
